--- a/output/StructureDefinition-PaymentReconciliation.xlsx
+++ b/output/StructureDefinition-PaymentReconciliation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$43</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="271">
   <si>
     <t>Path</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>This resource provides the details including amount of a payment and allocates the payment items being paid.</t>
-  </si>
-  <si>
-    <t>DomainResource</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -329,16 +326,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -362,6 +349,77 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>PaymentReconciliation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for a payment reconciliation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this payment reconciliation.</t>
+  </si>
+  <si>
+    <t>Allows payment reconciliations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Period covered</t>
+  </si>
+  <si>
+    <t>The period of time for which payments have been gathered into this bulk payment for settlement.</t>
+  </si>
+  <si>
+    <t>Needed to allow receivers to monitor and reconcile payment issuer schedules.</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
     <t>PaymentReconciliation.created</t>
   </si>
   <si>
@@ -384,6 +442,155 @@
     <t>FiveWs.recorded</t>
   </si>
   <si>
+    <t>PaymentReconciliation.paymentIssuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Party generating payment</t>
+  </si>
+  <si>
+    <t>The party who generated the payment.</t>
+  </si>
+  <si>
+    <t>This party is also responsible for the reconciliation.</t>
+  </si>
+  <si>
+    <t>Need to identify the party resonsible for the payment and this resource.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Task)
+</t>
+  </si>
+  <si>
+    <t>Reference to requesting resource</t>
+  </si>
+  <si>
+    <t>Original request resource reference.</t>
+  </si>
+  <si>
+    <t>Needed to allow the response to be linked to the request.</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>A02|G01</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.requestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Responsible practitioner</t>
+  </si>
+  <si>
+    <t>The practitioner who is responsible for the services rendered to the patient.</t>
+  </si>
+  <si>
+    <t>Need to identify the party responsible for the request.</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.outcome</t>
+  </si>
+  <si>
+    <t>queued | complete | error | partial</t>
+  </si>
+  <si>
+    <t>The outcome of a request for a reconciliation.</t>
+  </si>
+  <si>
+    <t>The resource may be used to indicate that: the request has been held (queued) for processing; that it has been processed and errors found (error); that no errors were found and that some of the adjudication has been undertaken (partial) or that all of the adjudication has been undertaken (complete).</t>
+  </si>
+  <si>
+    <t>To advise the requestor of an overall processing outcome.</t>
+  </si>
+  <si>
+    <t>The outcome of the processing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/remittance-outcome|4.0.1</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.disposition</t>
+  </si>
+  <si>
+    <t>Disposition message</t>
+  </si>
+  <si>
+    <t>A human readable description of the status of the request for the reconciliation.</t>
+  </si>
+  <si>
+    <t>Provided for user display.</t>
+  </si>
+  <si>
+    <t>Event.note</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.paymentDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When payment issued</t>
+  </si>
+  <si>
+    <t>The date of payment as indicated on the financial instrument.</t>
+  </si>
+  <si>
+    <t>To advise the payee when payment can be expected.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.paymentAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Money
+</t>
+  </si>
+  <si>
+    <t>Total amount of Payment</t>
+  </si>
+  <si>
+    <t>Total payment amount as indicated on the financial instrument.</t>
+  </si>
+  <si>
+    <t>Needed to provide the actual payment amount.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.paymentIdentifier</t>
+  </si>
+  <si>
+    <t>Business identifier for the payment</t>
+  </si>
+  <si>
+    <t>Issuer's unique identifier for the payment instrument.</t>
+  </si>
+  <si>
+    <t>For example: EFT number or check number.</t>
+  </si>
+  <si>
+    <t>Enable the receiver to reconcile when payment is received.</t>
+  </si>
+  <si>
     <t>PaymentReconciliation.detail</t>
   </si>
   <si>
@@ -400,74 +607,94 @@
     <t>Needed to show how the payment amount is distributed across the payables.</t>
   </si>
   <si>
-    <t>PaymentReconciliation.detail.amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money
+    <t>PaymentReconciliation.detail.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.identifier</t>
+  </si>
+  <si>
+    <t>Business identifier of the payment detail</t>
+  </si>
+  <si>
+    <t>Unique identifier for the current payment item for the referenced payable.</t>
+  </si>
+  <si>
+    <t>Needed for reconciliation of payments.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.predecessor</t>
+  </si>
+  <si>
+    <t>Business identifier of the prior payment detail</t>
+  </si>
+  <si>
+    <t>Unique identifier for the prior payment item for the referenced payable.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Amount allocated to this payable</t>
-  </si>
-  <si>
-    <t>The monetary amount allocated from the total payment to the payable.</t>
-  </si>
-  <si>
-    <t>Needed to explain the distribution of the payment to the payables.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>Date of commitment to pay</t>
-  </si>
-  <si>
-    <t>The date from the response resource containing a commitment to pay.</t>
-  </si>
-  <si>
-    <t>Needed for audit and validation.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier of the payment detail</t>
-  </si>
-  <si>
-    <t>Unique identifier for the current payment item for the referenced payable.</t>
-  </si>
-  <si>
-    <t>Needed for reconciliation of payments.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.payee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
-</t>
-  </si>
-  <si>
-    <t>Recipient of the payment</t>
-  </si>
-  <si>
-    <t>The party which is receiving the payment.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.predecessor</t>
-  </si>
-  <si>
-    <t>Business identifier of the prior payment detail</t>
-  </si>
-  <si>
-    <t>Unique identifier for the prior payment item for the referenced payable.</t>
+    <t>Category of payment</t>
+  </si>
+  <si>
+    <t>Code to indicate the nature of the payment.</t>
+  </si>
+  <si>
+    <t>For example: payment, adjustment, funds advance, etc.</t>
+  </si>
+  <si>
+    <t>Needed to provide context for the amount.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The reason for the amount: payment, adjustment, advance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/payment-type</t>
   </si>
   <si>
     <t>PaymentReconciliation.detail.request</t>
@@ -486,6 +713,18 @@
     <t>Needed to provide a linkage  to the original request.</t>
   </si>
   <si>
+    <t>PaymentReconciliation.detail.submitter</t>
+  </si>
+  <si>
+    <t>Submitter of the request</t>
+  </si>
+  <si>
+    <t>The party which submitted the claim or financial transaction.</t>
+  </si>
+  <si>
+    <t>Needed for audit and validation.</t>
+  </si>
+  <si>
     <t>PaymentReconciliation.detail.response</t>
   </si>
   <si>
@@ -496,6 +735,15 @@
   </si>
   <si>
     <t>Needed to provide a linkage to the payment commitment.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.date</t>
+  </si>
+  <si>
+    <t>Date of commitment to pay</t>
+  </si>
+  <si>
+    <t>The date from the response resource containing a commitment to pay.</t>
   </si>
   <si>
     <t>PaymentReconciliation.detail.responsible</t>
@@ -514,56 +762,25 @@
     <t>To provide contact information.</t>
   </si>
   <si>
-    <t>PaymentReconciliation.detail.submitter</t>
-  </si>
-  <si>
-    <t>Submitter of the request</t>
-  </si>
-  <si>
-    <t>The party which submitted the claim or financial transaction.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.detail.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Category of payment</t>
-  </si>
-  <si>
-    <t>Code to indicate the nature of the payment.</t>
-  </si>
-  <si>
-    <t>For example: payment, adjustment, funds advance, etc.</t>
-  </si>
-  <si>
-    <t>Needed to provide context for the amount.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The reason for the amount: payment, adjustment, advance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/payment-type</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.disposition</t>
-  </si>
-  <si>
-    <t>Disposition message</t>
-  </si>
-  <si>
-    <t>A human readable description of the status of the request for the reconciliation.</t>
-  </si>
-  <si>
-    <t>Provided for user display.</t>
-  </si>
-  <si>
-    <t>Event.note</t>
+    <t>PaymentReconciliation.detail.payee</t>
+  </si>
+  <si>
+    <t>Recipient of the payment</t>
+  </si>
+  <si>
+    <t>The party which is receiving the payment.</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.detail.amount</t>
+  </si>
+  <si>
+    <t>Amount allocated to this payable</t>
+  </si>
+  <si>
+    <t>The monetary amount allocated from the total payment to the payable.</t>
+  </si>
+  <si>
+    <t>Needed to explain the distribution of the payment to the payables.</t>
   </si>
   <si>
     <t>PaymentReconciliation.formCode</t>
@@ -587,131 +804,6 @@
     <t>http://hl7.org/fhir/ValueSet/forms</t>
   </si>
   <si>
-    <t>PaymentReconciliation.identifier</t>
-  </si>
-  <si>
-    <t>Business Identifier for a payment reconciliation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this payment reconciliation.</t>
-  </si>
-  <si>
-    <t>Allows payment reconciliations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.outcome</t>
-  </si>
-  <si>
-    <t>queued | complete | error | partial</t>
-  </si>
-  <si>
-    <t>The outcome of a request for a reconciliation.</t>
-  </si>
-  <si>
-    <t>The resource may be used to indicate that: the request has been held (queued) for processing; that it has been processed and errors found (error); that no errors were found and that some of the adjudication has been undertaken (partial) or that all of the adjudication has been undertaken (complete).</t>
-  </si>
-  <si>
-    <t>To advise the requestor of an overall processing outcome.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The outcome of the processing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/remittance-outcome|4.0.1</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentAmount</t>
-  </si>
-  <si>
-    <t>Total amount of Payment</t>
-  </si>
-  <si>
-    <t>Total payment amount as indicated on the financial instrument.</t>
-  </si>
-  <si>
-    <t>Needed to provide the actual payment amount.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentDate</t>
-  </si>
-  <si>
-    <t>When payment issued</t>
-  </si>
-  <si>
-    <t>The date of payment as indicated on the financial instrument.</t>
-  </si>
-  <si>
-    <t>To advise the payee when payment can be expected.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIdentifier</t>
-  </si>
-  <si>
-    <t>Business identifier for the payment</t>
-  </si>
-  <si>
-    <t>Issuer's unique identifier for the payment instrument.</t>
-  </si>
-  <si>
-    <t>For example: EFT number or check number.</t>
-  </si>
-  <si>
-    <t>Enable the receiver to reconcile when payment is received.</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.paymentIssuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Party generating payment</t>
-  </si>
-  <si>
-    <t>The party who generated the payment.</t>
-  </si>
-  <si>
-    <t>This party is also responsible for the reconciliation.</t>
-  </si>
-  <si>
-    <t>Need to identify the party resonsible for the payment and this resource.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Period covered</t>
-  </si>
-  <si>
-    <t>The period of time for which payments have been gathered into this bulk payment for settlement.</t>
-  </si>
-  <si>
-    <t>Needed to allow receivers to monitor and reconcile payment issuer schedules.</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
     <t>PaymentReconciliation.processNote</t>
   </si>
   <si>
@@ -724,6 +816,33 @@
     <t>Provides the specific textual explanations associated with the processing.</t>
   </si>
   <si>
+    <t>PaymentReconciliation.processNote.id</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.processNote.extension</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.processNote.modifierExtension</t>
+  </si>
+  <si>
+    <t>PaymentReconciliation.processNote.type</t>
+  </si>
+  <si>
+    <t>display | print | printoper</t>
+  </si>
+  <si>
+    <t>The business purpose of the note text.</t>
+  </si>
+  <si>
+    <t>To convey the expectation for when the text is used.</t>
+  </si>
+  <si>
+    <t>The presentation types of notes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/note-type|4.0.1</t>
+  </si>
+  <si>
     <t>PaymentReconciliation.processNote.text</t>
   </si>
   <si>
@@ -737,88 +856,6 @@
   </si>
   <si>
     <t>G32</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.processNote.type</t>
-  </si>
-  <si>
-    <t>display | print | printoper</t>
-  </si>
-  <si>
-    <t>The business purpose of the note text.</t>
-  </si>
-  <si>
-    <t>To convey the expectation for when the text is used.</t>
-  </si>
-  <si>
-    <t>The presentation types of notes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/note-type|4.0.1</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Task)
-</t>
-  </si>
-  <si>
-    <t>Reference to requesting resource</t>
-  </si>
-  <si>
-    <t>Original request resource reference.</t>
-  </si>
-  <si>
-    <t>Needed to allow the response to be linked to the request.</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>A02|G01</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.requestor</t>
-  </si>
-  <si>
-    <t>Responsible practitioner</t>
-  </si>
-  <si>
-    <t>The practitioner who is responsible for the services rendered to the patient.</t>
-  </si>
-  <si>
-    <t>Need to identify the party responsible for the request.</t>
-  </si>
-  <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>PaymentReconciliation.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
 </sst>
 </file>
@@ -967,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -976,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1003,7 +1040,7 @@
     <col min="25" max="25" width="50.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.88671875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1218,7 +1255,7 @@
         <v>40</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>41</v>
@@ -1230,24 +1267,24 @@
         <v>40</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1258,28 +1295,28 @@
         <v>41</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1329,13 +1366,13 @@
         <v>40</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>40</v>
@@ -1358,7 +1395,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1369,25 +1406,25 @@
         <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1438,19 +1475,19 @@
         <v>40</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -1467,7 +1504,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1478,28 +1515,28 @@
         <v>41</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1549,19 +1586,19 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -1578,7 +1615,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1589,7 +1626,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1601,16 +1638,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1636,43 +1673,43 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -1689,18 +1726,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>40</v>
@@ -1712,16 +1749,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1771,40 +1808,40 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1823,16 +1860,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1882,7 +1919,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -1906,16 +1943,16 @@
         <v>40</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1934,16 +1971,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1981,19 +2018,19 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2005,7 +2042,7 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
@@ -2017,16 +2054,16 @@
         <v>40</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2039,25 +2076,25 @@
         <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2094,19 +2131,19 @@
         <v>40</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2118,7 +2155,7 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2130,12 +2167,12 @@
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2143,10 +2180,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2155,20 +2192,20 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2217,25 +2254,25 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
@@ -2246,7 +2283,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2254,32 +2291,34 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2304,13 +2343,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2328,25 +2367,25 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
@@ -2357,7 +2396,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2368,29 +2407,29 @@
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2439,25 +2478,25 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2468,7 +2507,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2476,32 +2515,32 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2550,25 +2589,25 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2579,7 +2618,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2590,29 +2629,31 @@
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N15" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2661,25 +2702,25 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2690,7 +2731,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2701,7 +2742,7 @@
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>40</v>
@@ -2713,17 +2754,17 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2772,28 +2813,28 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2801,7 +2842,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2809,10 +2850,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2824,17 +2865,17 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2883,19 +2924,19 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
@@ -2904,7 +2945,7 @@
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -2912,7 +2953,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2920,10 +2961,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -2935,17 +2976,19 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N18" t="s" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -2970,13 +3013,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -2994,19 +3037,19 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>40</v>
@@ -3023,7 +3066,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3034,7 +3077,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3046,17 +3089,17 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3105,22 +3148,22 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3134,7 +3177,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3142,32 +3185,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3216,19 +3259,19 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>40</v>
@@ -3245,7 +3288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3253,32 +3296,32 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3327,19 +3370,19 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
@@ -3356,7 +3399,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3364,10 +3407,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3379,19 +3422,19 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3416,13 +3459,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3440,19 +3483,19 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
@@ -3469,7 +3512,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3480,7 +3523,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3492,17 +3535,17 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3551,22 +3594,22 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -3580,7 +3623,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3591,7 +3634,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3603,20 +3646,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3640,13 +3679,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3664,13 +3703,13 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3688,16 +3727,16 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3716,18 +3755,18 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3775,7 +3814,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3787,59 +3826,59 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="I26" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3864,13 +3903,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -3888,19 +3927,19 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
@@ -3912,12 +3951,12 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3925,10 +3964,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -3937,20 +3976,20 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -3999,19 +4038,19 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
@@ -4028,7 +4067,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4036,10 +4075,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4048,20 +4087,20 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4110,19 +4149,19 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
@@ -4139,7 +4178,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4147,10 +4186,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4162,19 +4201,19 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4199,13 +4238,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4223,19 +4262,19 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
@@ -4252,7 +4291,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4263,7 +4302,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4272,22 +4311,20 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4336,25 +4373,25 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4365,7 +4402,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4376,7 +4413,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4385,20 +4422,20 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4447,25 +4484,25 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4476,7 +4513,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4487,7 +4524,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4499,17 +4536,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4558,19 +4595,19 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
@@ -4587,7 +4624,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4598,7 +4635,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4610,17 +4647,17 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4669,19 +4706,19 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
@@ -4690,7 +4727,7 @@
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4698,7 +4735,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4709,7 +4746,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4721,17 +4758,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4756,13 +4793,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4780,19 +4817,19 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
@@ -4809,7 +4846,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4820,7 +4857,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4832,7 +4869,7 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>240</v>
@@ -4842,7 +4879,7 @@
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4891,28 +4928,28 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -4920,7 +4957,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4928,10 +4965,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -4943,17 +4980,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5002,19 +5039,19 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5023,7 +5060,7 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5031,7 +5068,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5039,34 +5076,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5091,59 +5128,725 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X37" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF37" t="s" s="2">
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AG37" t="s" s="2">
+      <c r="I41" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="J41" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM37">
+  <autoFilter ref="A1:AM43">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5153,7 +5856,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI42">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-PaymentReconciliation.xlsx
+++ b/output/StructureDefinition-PaymentReconciliation.xlsx
@@ -1013,45 +1013,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.22265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="54.40234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
